--- a/predictions/motif_chem_trio_fine_tuned_wo_tie_embedding_prediction.xlsx
+++ b/predictions/motif_chem_trio_fine_tuned_wo_tie_embedding_prediction.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10" conformance="strict">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
+<workbook xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2" conformance="strict">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
   <workbookPr dateCompatibility="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/datqngo/Desktop/projects/ggpm/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/datqngo/Desktop/projects/ggpm/predictions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{53465F6C-B462-D544-9795-295FD75B0E0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{F509B168-BAC2-8D45-A736-20260D7B000A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6060" yWindow="5480" windowWidth="28040" windowHeight="17440"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="motif_chem_trio_fine_tuned_wo_t" sheetId="1" r:id="rId1"/>
@@ -307,7 +307,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -1144,11 +1144,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="B43" activeCellId="3" sqref="A21:XFD21 A19:XFD19 A28:XFD28 A43:XFD43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1437,11 +1437,11 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <f>E7-C7</f>
+        <f t="shared" ref="K7:L14" si="9">E7-C7</f>
         <v>2.3000000000000576E-2</v>
       </c>
       <c r="L7">
-        <f>F7-D7</f>
+        <f t="shared" si="9"/>
         <v>-0.50319999999999965</v>
       </c>
       <c r="M7">
@@ -1481,11 +1481,11 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <f>E8-C8</f>
+        <f t="shared" si="9"/>
         <v>7.1600000000000108E-2</v>
       </c>
       <c r="L8">
-        <f>F8-D8</f>
+        <f t="shared" si="9"/>
         <v>-0.6086999999999998</v>
       </c>
       <c r="M8">
@@ -1525,11 +1525,11 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <f>E9-C9</f>
+        <f t="shared" si="9"/>
         <v>0.52519999999999989</v>
       </c>
       <c r="L9">
-        <f>F9-D9</f>
+        <f t="shared" si="9"/>
         <v>-0.62860000000000049</v>
       </c>
       <c r="M9">
@@ -1569,11 +1569,11 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <f>E10-C10</f>
+        <f t="shared" si="9"/>
         <v>0.24869999999999948</v>
       </c>
       <c r="L10">
-        <f>F10-D10</f>
+        <f t="shared" si="9"/>
         <v>-0.71229999999999993</v>
       </c>
       <c r="M10">
@@ -1613,11 +1613,11 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <f>E11-C11</f>
+        <f t="shared" si="9"/>
         <v>6.9300000000000139E-2</v>
       </c>
       <c r="L11">
-        <f>F11-D11</f>
+        <f t="shared" si="9"/>
         <v>-0.51870000000000038</v>
       </c>
       <c r="M11">
@@ -1657,11 +1657,11 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <f>E12-C12</f>
+        <f t="shared" si="9"/>
         <v>1.9700000000000273E-2</v>
       </c>
       <c r="L12">
-        <f>F12-D12</f>
+        <f t="shared" si="9"/>
         <v>-0.25809999999999977</v>
       </c>
       <c r="M12">
@@ -1701,11 +1701,11 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <f>E13-C13</f>
+        <f t="shared" si="9"/>
         <v>0.18159999999999954</v>
       </c>
       <c r="L13">
-        <f>F13-D13</f>
+        <f t="shared" si="9"/>
         <v>-0.6048</v>
       </c>
       <c r="M13">
@@ -1745,11 +1745,11 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <f>E14-C14</f>
+        <f t="shared" si="9"/>
         <v>0.19079999999999941</v>
       </c>
       <c r="L14">
-        <f>F14-D14</f>
+        <f t="shared" si="9"/>
         <v>-0.30729999999999968</v>
       </c>
       <c r="M14">
@@ -1833,11 +1833,11 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <f>E16-C16</f>
+        <f t="shared" ref="K16:L18" si="10">E16-C16</f>
         <v>0.59999999999999964</v>
       </c>
       <c r="L16">
-        <f>F16-D16</f>
+        <f t="shared" si="10"/>
         <v>-1.3799999999999812E-2</v>
       </c>
       <c r="M16">
@@ -1877,11 +1877,11 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <f>E17-C17</f>
+        <f t="shared" si="10"/>
         <v>0.30240000000000045</v>
       </c>
       <c r="L17">
-        <f>F17-D17</f>
+        <f t="shared" si="10"/>
         <v>-0.37640000000000029</v>
       </c>
       <c r="M17">
@@ -1921,11 +1921,11 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <f>E18-C18</f>
+        <f t="shared" si="10"/>
         <v>0.18710000000000004</v>
       </c>
       <c r="L18">
-        <f>F18-D18</f>
+        <f t="shared" si="10"/>
         <v>-0.45350000000000001</v>
       </c>
       <c r="M18">
@@ -2177,11 +2177,11 @@
         <v>-4.9284999999999997</v>
       </c>
       <c r="G24">
-        <f t="shared" ref="G24:G26" si="9">E24-C24</f>
+        <f t="shared" ref="G24:G26" si="11">E24-C24</f>
         <v>0.65330000000000066</v>
       </c>
       <c r="H24">
-        <f t="shared" ref="H24:H26" si="10">F24-D24</f>
+        <f t="shared" ref="H24:H26" si="12">F24-D24</f>
         <v>-1.0084999999999997</v>
       </c>
       <c r="I24">
@@ -2221,11 +2221,11 @@
         <v>-4.9714</v>
       </c>
       <c r="G25">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.6938999999999993</v>
       </c>
       <c r="H25">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>-1.0013999999999998</v>
       </c>
       <c r="I25">
@@ -2265,11 +2265,11 @@
         <v>-3.5973999999999999</v>
       </c>
       <c r="G26">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>-0.40190000000000037</v>
       </c>
       <c r="H26">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0.27260000000000018</v>
       </c>
       <c r="I26">
@@ -2397,11 +2397,11 @@
         <v>-4.2721</v>
       </c>
       <c r="G29">
-        <f t="shared" ref="G29:G30" si="11">E29-C29</f>
+        <f t="shared" ref="G29:G30" si="13">E29-C29</f>
         <v>4.2399999999999771E-2</v>
       </c>
       <c r="H29">
-        <f t="shared" ref="H29:H30" si="12">F29-D29</f>
+        <f t="shared" ref="H29:H30" si="14">F29-D29</f>
         <v>-0.4921000000000002</v>
       </c>
       <c r="I29">
@@ -2441,11 +2441,11 @@
         <v>-4.4520999999999997</v>
       </c>
       <c r="G30">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0.26400000000000023</v>
       </c>
       <c r="H30">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>-0.50209999999999955</v>
       </c>
       <c r="I30">
@@ -2617,11 +2617,11 @@
         <v>-4.4263000000000003</v>
       </c>
       <c r="G34">
-        <f t="shared" ref="G34:G38" si="13">E34-C34</f>
+        <f t="shared" ref="G34:G38" si="15">E34-C34</f>
         <v>0.55839999999999979</v>
       </c>
       <c r="H34">
-        <f t="shared" ref="H34:H38" si="14">F34-D34</f>
+        <f t="shared" ref="H34:H38" si="16">F34-D34</f>
         <v>-0.57630000000000026</v>
       </c>
       <c r="I34">
@@ -2661,11 +2661,11 @@
         <v>-4.1680999999999999</v>
       </c>
       <c r="G35">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1.9700000000000273E-2</v>
       </c>
       <c r="H35">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>-0.25809999999999977</v>
       </c>
       <c r="I35">
@@ -2705,11 +2705,11 @@
         <v>-4.6386000000000003</v>
       </c>
       <c r="G36">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0.52519999999999989</v>
       </c>
       <c r="H36">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>-0.62860000000000049</v>
       </c>
       <c r="I36">
@@ -2749,11 +2749,11 @@
         <v>-4.5675999999999997</v>
       </c>
       <c r="G37">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0.14399999999999924</v>
       </c>
       <c r="H37">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>-0.69759999999999955</v>
       </c>
       <c r="I37">
@@ -2793,11 +2793,11 @@
         <v>-4.7649999999999997</v>
       </c>
       <c r="G38">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>-1.4504999999999999</v>
       </c>
       <c r="H38">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1.0449999999999999</v>
       </c>
       <c r="I38">
@@ -2881,11 +2881,11 @@
         <v>-4.51</v>
       </c>
       <c r="G40">
-        <f t="shared" ref="G40" si="15">E40-C40</f>
+        <f t="shared" ref="G40" si="17">E40-C40</f>
         <v>-0.10579999999999945</v>
       </c>
       <c r="H40">
-        <f t="shared" ref="H40" si="16">F40-D40</f>
+        <f t="shared" ref="H40" si="18">F40-D40</f>
         <v>-0.61999999999999966</v>
       </c>
       <c r="I40">
@@ -3013,11 +3013,11 @@
         <v>-1.5569</v>
       </c>
       <c r="G43">
-        <f t="shared" ref="G43" si="17">E43-C43</f>
+        <f t="shared" ref="G43" si="19">E43-C43</f>
         <v>5.8571999999999997</v>
       </c>
       <c r="H43">
-        <f t="shared" ref="H43" si="18">F43-D43</f>
+        <f t="shared" ref="H43" si="20">F43-D43</f>
         <v>2.0430999999999999</v>
       </c>
       <c r="I43">
@@ -3057,11 +3057,11 @@
         <v>-4.4001999999999999</v>
       </c>
       <c r="G44">
-        <f t="shared" ref="G44" si="19">E44-C44</f>
+        <f t="shared" ref="G44" si="21">E44-C44</f>
         <v>3.3299999999999663E-2</v>
       </c>
       <c r="H44">
-        <f t="shared" ref="H44" si="20">F44-D44</f>
+        <f t="shared" ref="H44" si="22">F44-D44</f>
         <v>-0.54020000000000001</v>
       </c>
       <c r="I44">
@@ -3189,11 +3189,11 @@
         <v>-3.1917</v>
       </c>
       <c r="G47">
-        <f t="shared" ref="G47" si="21">E47-C47</f>
+        <f t="shared" ref="G47" si="23">E47-C47</f>
         <v>-0.70040000000000013</v>
       </c>
       <c r="H47">
-        <f t="shared" ref="H47" si="22">F47-D47</f>
+        <f t="shared" ref="H47" si="24">F47-D47</f>
         <v>2.6182999999999996</v>
       </c>
       <c r="I47">

--- a/predictions/motif_chem_trio_fine_tuned_wo_tie_embedding_prediction.xlsx
+++ b/predictions/motif_chem_trio_fine_tuned_wo_tie_embedding_prediction.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2" conformance="strict">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
   <workbookPr dateCompatibility="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/datqngo/Desktop/projects/ggpm/predictions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{F509B168-BAC2-8D45-A736-20260D7B000A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{4F067A8D-B4EA-1742-ABDE-566141262ABF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="motif_chem_trio_fine_tuned_wo_t" sheetId="1" r:id="rId1"/>
@@ -1147,14 +1147,14 @@
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B43" activeCellId="3" sqref="A21:XFD21 A19:XFD19 A28:XFD28 A43:XFD43"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="88" customWidth="1"/>
-    <col min="2" max="2" width="74.6640625" customWidth="1"/>
+    <col min="1" max="1" width="178.1640625" customWidth="1"/>
+    <col min="2" max="2" width="184.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">

--- a/predictions/motif_chem_trio_fine_tuned_wo_tie_embedding_prediction.xlsx
+++ b/predictions/motif_chem_trio_fine_tuned_wo_tie_embedding_prediction.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2" conformance="strict">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10520"/>
   <workbookPr dateCompatibility="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/datqngo/Desktop/projects/ggpm/predictions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{4F067A8D-B4EA-1742-ABDE-566141262ABF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{50F0B419-242B-9B4B-BD74-2CE95A367E32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="motif_chem_trio_fine_tuned_wo_t" sheetId="1" r:id="rId1"/>
@@ -1148,7 +1148,7 @@
   <dimension ref="A1:N48"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="G1" sqref="G1:N48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
